--- a/صيدليات دكتور مصطفي طلعت_2026-01-03_17-29.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-03_17-29.xlsx
@@ -98,6 +98,12 @@
     <t>2:2</t>
   </si>
   <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -213,9 +219,6 @@
   </si>
   <si>
     <t>PRONTO PLUS 20 TAB.</t>
-  </si>
-  <si>
-    <t>2:1</t>
   </si>
   <si>
     <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
@@ -1250,11 +1253,11 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1270,13 +1273,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>139.68000000000001</v>
+        <v>36</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
@@ -1288,7 +1291,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1296,17 +1299,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>24</v>
+        <v>139.68000000000001</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
-        <v>0.66000000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1322,17 +1325,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>26.670000000000002</v>
+        <v>24</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.66000000000000003</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1340,7 +1343,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1348,17 +1351,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>66</v>
+        <v>26.670000000000002</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1366,7 +1369,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1374,13 +1377,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
@@ -1406,11 +1409,11 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
-        <v>0.67000000000000004</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1426,17 +1429,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>63.240000000000002</v>
+        <v>32</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
-        <v>2</v>
+        <v>0.67000000000000004</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1444,7 +1447,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1452,17 +1455,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>28</v>
+        <v>63.240000000000002</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1470,7 +1473,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1478,17 +1481,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>50.439999999999998</v>
+        <v>28</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1496,7 +1499,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1510,11 +1513,11 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>0</v>
+        <v>50.439999999999998</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1522,7 +1525,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1530,17 +1533,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1556,17 +1559,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>40.479999999999997</v>
+        <v>17</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1574,7 +1577,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1582,17 +1585,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>19</v>
+        <v>40.479999999999997</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
-        <v>0.10000000000000001</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1600,7 +1603,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1608,17 +1611,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
-        <v>1</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1626,7 +1629,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1634,13 +1637,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
@@ -1652,7 +1655,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1660,17 +1663,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1686,17 +1689,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1704,7 +1707,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1712,13 +1715,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
@@ -1730,7 +1733,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1738,17 +1741,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1756,7 +1759,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1764,17 +1767,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
-        <v>0.17000000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1790,17 +1793,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>332</v>
+        <v>11</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1808,7 +1811,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1822,7 +1825,7 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>65</v>
+        <v>332</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
@@ -1834,7 +1837,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1842,13 +1845,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
@@ -1874,11 +1877,11 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1900,11 +1903,11 @@
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1920,17 +1923,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>153.59999999999999</v>
+        <v>32</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1938,7 +1941,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1952,11 +1955,11 @@
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>180</v>
+        <v>153.59999999999999</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1964,7 +1967,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1972,17 +1975,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -1998,17 +2001,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>169.19999999999999</v>
+        <v>20</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
-        <v>0.29999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2016,7 +2019,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2024,17 +2027,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>45</v>
+        <v>169.19999999999999</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
-        <v>1</v>
+        <v>0.29999999999999999</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2050,13 +2053,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
@@ -2076,13 +2079,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>73.319999999999993</v>
+        <v>62</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
@@ -2102,17 +2105,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>45.5</v>
+        <v>73.319999999999993</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2128,17 +2131,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>116</v>
+        <v>45.5</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2154,17 +2157,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2172,7 +2175,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2180,13 +2183,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
@@ -2206,17 +2209,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2232,17 +2235,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
-        <v>0.66000000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2250,7 +2253,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2258,17 +2261,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
-        <v>1</v>
+        <v>0.66000000000000003</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2284,13 +2287,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
@@ -2310,13 +2313,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
@@ -2336,17 +2339,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2354,7 +2357,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2362,17 +2365,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2388,17 +2391,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2414,17 +2417,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2432,7 +2435,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2440,51 +2443,77 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" ht="25.5" customHeight="1">
+      <c r="A65" s="6">
+        <v>62</v>
+      </c>
+      <c t="s" r="B65" s="7">
+        <v>92</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c t="s" r="H65" s="8">
+        <v>47</v>
+      </c>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="9">
+        <v>27</v>
+      </c>
+      <c r="M65" s="9"/>
+      <c r="N65" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="65" ht="26.25" customHeight="1">
-      <c r="K65" s="11">
-        <v>3521.0300000000002</v>
-      </c>
-      <c r="L65" s="11"/>
-      <c r="M65" s="11"/>
-      <c r="N65" s="11"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="12">
-        <v>92</v>
-      </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c t="s" r="F66" s="13">
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="K66" s="11">
+        <v>3545.0300000000002</v>
+      </c>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="12">
         <v>93</v>
       </c>
-      <c r="G66" s="13"/>
-      <c r="H66" s="14"/>
-      <c t="s" r="I66" s="15">
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c t="s" r="F67" s="13">
         <v>94</v>
       </c>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="14"/>
+      <c t="s" r="I67" s="15">
+        <v>95</v>
+      </c>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="194">
+  <mergeCells count="197">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2675,10 +2704,13 @@
     <mergeCell ref="B64:G64"/>
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="I66:N66"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="I67:N67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
